--- a/Ryan_Bell_LLM_Sheet.xlsx
+++ b/Ryan_Bell_LLM_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Creation_Sheet" sheetId="1" state="visible" r:id="rId3"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
   <si>
     <t xml:space="preserve">WAVE errors (https://wave.webaim.org/)</t>
   </si>
@@ -240,6 +240,158 @@
     <t xml:space="preserve">https://chat.openai.com/share/443180c1-d7b4-411a-bbc6-ab3c1ebbb52f </t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/chatgpt/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/chatgpt/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask Codi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/ask-codi/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/ask-codi/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.blackbox.ai/share/51850356-5da9-47f3-89bb-cd0163aa6369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/you/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/you/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Bard (Gemini)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gemini.google.com/app/4dcbd8738f5256f2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/gemini/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/gemini/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub Copilot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/github-copilot/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/github-copilot/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazom Whisperer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/amazon-whisperer/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/amazon-whisperer/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 X Language missing or invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1 Readable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCAG 2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success Criteria 3.1.1 Language of Page (A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 X Device dependent event handler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Copilot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://copilot.microsoft.com/sl/eGI3mUKzzbM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/microsoft-copilot/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/microsoft-copilot.index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabnine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n./a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/tabnine/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/tabnine/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codeium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/codeium/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/codeium/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.phind.com/agent?cache=clvbhivv1000tjq0836ad8yim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/phind/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blackbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.blackbox.ai/share/54f963f5-45e5-46cd-85bb-72a0aadd5bd3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/blackbox/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/blackbox/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/double/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/double/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Fixing Prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I ran the code above through a couple of online accessibility checkers and got the following errors:
+&lt;errors here&gt;
+Can you please fix the mentioned errors in the above code and provide the corrected source code?</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 X Linked image missing alternative text</t>
   </si>
   <si>
@@ -256,63 +408,6 @@
   </si>
   <si>
     <t xml:space="preserve">1 X Very low contrast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ask Codi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.blackbox.ai/share/51850356-5da9-47f3-89bb-cd0163aa6369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google Bard (Gemini)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gemini.google.com/app/4dcbd8738f5256f2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Copilot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazom Whisperer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did not generate HTML code no matter how many times I prompted it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Copilot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://copilot.microsoft.com/sl/eGI3mUKzzbM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabnine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">did not let me sign up, wanted me to verify my email but never sent the verification email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codeium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blackbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error Fixing Prompt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryan</t>
   </si>
 </sst>
 </file>
@@ -369,14 +464,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF444444"/>
       <name val="&quot;Open Sans&quot;"/>
@@ -397,6 +484,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -525,7 +618,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -582,11 +675,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -594,7 +683,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -606,11 +695,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -618,20 +707,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -885,8 +982,8 @@
   </sheetPr>
   <dimension ref="A1:O906"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E19" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -990,27 +1087,19 @@
       <c r="F3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15" t="s">
+      <c r="G3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="17" t="s">
+      <c r="H3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="16"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
@@ -1020,18 +1109,14 @@
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9"/>
@@ -1041,14 +1126,14 @@
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
@@ -1058,1482 +1143,1552 @@
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="21" t="s">
-        <v>27</v>
+      <c r="E7" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
+      <c r="G7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
+      <c r="G15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="21" t="s">
-        <v>33</v>
+      <c r="E19" s="20" t="s">
+        <v>35</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>28</v>
+      <c r="F19" s="12" t="s">
+        <v>24</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
+      <c r="G19" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="21" t="s">
-        <v>34</v>
+      <c r="E23" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
+      <c r="G23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="21" t="s">
-        <v>36</v>
+      <c r="E27" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
+      <c r="G27" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="21" t="s">
-        <v>38</v>
+      <c r="E31" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
+      <c r="G31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="21" t="s">
-        <v>40</v>
+      <c r="E35" s="20" t="s">
+        <v>55</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
+      <c r="F35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="21" t="s">
-        <v>41</v>
+      <c r="E39" s="20" t="s">
+        <v>58</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
+      <c r="F39" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="11"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="11"/>
-      <c r="E43" s="21" t="s">
-        <v>42</v>
+      <c r="E43" s="20" t="s">
+        <v>61</v>
       </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
+      <c r="F43" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="11"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="11"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="21" t="s">
-        <v>43</v>
+      <c r="E47" s="20" t="s">
+        <v>65</v>
       </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
+      <c r="F47" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="11"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="11"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B99" s="23"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B103" s="23"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B104" s="23"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B105" s="23"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="23"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B106" s="23"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="23"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B107" s="23"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="23"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B108" s="23"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="23"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B109" s="23"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="23"/>
-      <c r="H109" s="23"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B111" s="23"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B112" s="23"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="23"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B114" s="23"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="23"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="23"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="23"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="23"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="23"/>
-      <c r="G116" s="23"/>
-      <c r="H116" s="23"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B117" s="23"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="23"/>
-      <c r="H117" s="23"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="25"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B118" s="23"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="23"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B119" s="23"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="23"/>
-      <c r="G119" s="23"/>
-      <c r="H119" s="23"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="25"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B120" s="23"/>
-      <c r="C120" s="23"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="23"/>
-      <c r="F120" s="23"/>
-      <c r="G120" s="23"/>
-      <c r="H120" s="23"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="25"/>
+      <c r="H120" s="25"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="23"/>
-      <c r="C121" s="23"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23"/>
-      <c r="G121" s="23"/>
-      <c r="H121" s="23"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="25"/>
+      <c r="H121" s="25"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="23"/>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="23"/>
-      <c r="G122" s="23"/>
-      <c r="H122" s="23"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B123" s="23"/>
-      <c r="C123" s="23"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
-      <c r="F123" s="23"/>
-      <c r="G123" s="23"/>
-      <c r="H123" s="23"/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B124" s="23"/>
-      <c r="C124" s="23"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="23"/>
-      <c r="F124" s="23"/>
-      <c r="G124" s="23"/>
-      <c r="H124" s="23"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="25"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="23"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="23"/>
-      <c r="H125" s="23"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="25"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="23"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="23"/>
-      <c r="G126" s="23"/>
-      <c r="H126" s="23"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="25"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3373,21 +3528,46 @@
     <mergeCell ref="H47:H50"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId2" display="https://chat.openai.com/share/443180c1-d7b4-411a-bbc6-ab3c1ebbb52f"/>
-    <hyperlink ref="E7" r:id="rId3" display="Ask Codi"/>
-    <hyperlink ref="E11" r:id="rId4" display="You"/>
-    <hyperlink ref="F11" r:id="rId5" display="https://www.blackbox.ai/share/51850356-5da9-47f3-89bb-cd0163aa6369"/>
-    <hyperlink ref="E15" r:id="rId6" display="Google Bard (Gemini)"/>
-    <hyperlink ref="F15" r:id="rId7" display="https://gemini.google.com/app/4dcbd8738f5256f2"/>
-    <hyperlink ref="E19" r:id="rId8" display="GitHub Copilot"/>
-    <hyperlink ref="E23" r:id="rId9" display="Amazom Whisperer"/>
-    <hyperlink ref="E27" r:id="rId10" display="Microsoft Copilot"/>
-    <hyperlink ref="F27" r:id="rId11" display="https://copilot.microsoft.com/sl/eGI3mUKzzbM"/>
-    <hyperlink ref="E31" r:id="rId12" display="Tabnine"/>
-    <hyperlink ref="E35" r:id="rId13" display="Codeium"/>
-    <hyperlink ref="E39" r:id="rId14" display="Phind"/>
-    <hyperlink ref="E43" r:id="rId15" display="blackbox"/>
-    <hyperlink ref="E47" r:id="rId16" display="double"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://chat.openai.com/share/443180c1-d7b4-411a-bbc6-ab3c1ebbb52f "/>
+    <hyperlink ref="G3" r:id="rId3" display="https://github.com/raian621/llm-prompting-assignment/tree/main/chatgpt/index.html"/>
+    <hyperlink ref="H3" r:id="rId4" display="https://raian621.github.io/llm-prompting-assignment/chatgpt/index.html"/>
+    <hyperlink ref="E7" r:id="rId5" display="Ask Codi"/>
+    <hyperlink ref="G7" r:id="rId6" display="https://github.com/raian621/llm-prompting-assignment/tree/main/ask-codi/index.html"/>
+    <hyperlink ref="H7" r:id="rId7" display="https://raian621.github.io/llm-prompting-assignment/ask-codi/index.html"/>
+    <hyperlink ref="E11" r:id="rId8" display="You"/>
+    <hyperlink ref="F11" r:id="rId9" display="https://www.blackbox.ai/share/51850356-5da9-47f3-89bb-cd0163aa6369"/>
+    <hyperlink ref="G11" r:id="rId10" display="https://github.com/raian621/llm-prompting-assignment/tree/main/you/index.html"/>
+    <hyperlink ref="H11" r:id="rId11" display="https://raian621.github.io/llm-prompting-assignment/you/index.html"/>
+    <hyperlink ref="E15" r:id="rId12" display="Google Bard (Gemini)"/>
+    <hyperlink ref="F15" r:id="rId13" display="https://gemini.google.com/app/4dcbd8738f5256f2"/>
+    <hyperlink ref="G15" r:id="rId14" display="https://github.com/raian621/llm-prompting-assignment/tree/main/gemini/index.html"/>
+    <hyperlink ref="H15" r:id="rId15" display="https://raian621.github.io/llm-prompting-assignment/gemini/index.html"/>
+    <hyperlink ref="E19" r:id="rId16" display="GitHub Copilot"/>
+    <hyperlink ref="G19" r:id="rId17" display="https://github.com/raian621/llm-prompting-assignment/tree/main/github-copilot/index.html"/>
+    <hyperlink ref="H19" r:id="rId18" display="https://raian621.github.io/llm-prompting-assignment/github-copilot/index.html"/>
+    <hyperlink ref="E23" r:id="rId19" display="Amazom Whisperer"/>
+    <hyperlink ref="G23" r:id="rId20" display="https://github.com/raian621/llm-prompting-assignment/tree/main/amazon-whisperer/index.html"/>
+    <hyperlink ref="H23" r:id="rId21" display="https://raian621.github.io/llm-prompting-assignment/amazon-whisperer/index.html"/>
+    <hyperlink ref="E27" r:id="rId22" display="Microsoft Copilot"/>
+    <hyperlink ref="F27" r:id="rId23" display="https://copilot.microsoft.com/sl/eGI3mUKzzbM"/>
+    <hyperlink ref="G27" r:id="rId24" display="https://github.com/raian621/llm-prompting-assignment/tree/main/microsoft-copilot/index.html"/>
+    <hyperlink ref="H27" r:id="rId25" display="https://raian621.github.io/llm-prompting-assignment/microsoft-copilot.index.html"/>
+    <hyperlink ref="E31" r:id="rId26" display="Tabnine"/>
+    <hyperlink ref="G31" r:id="rId27" display="https://github.com/raian621/llm-prompting-assignment/tree/main/tabnine/index.html"/>
+    <hyperlink ref="H31" r:id="rId28" display="https://raian621.github.io/llm-prompting-assignment/tabnine/index.html"/>
+    <hyperlink ref="E35" r:id="rId29" display="Codeium"/>
+    <hyperlink ref="G35" r:id="rId30" display="https://github.com/raian621/llm-prompting-assignment/tree/main/codeium/index.html"/>
+    <hyperlink ref="H35" r:id="rId31" display="https://raian621.github.io/llm-prompting-assignment/codeium/index.html"/>
+    <hyperlink ref="E39" r:id="rId32" display="Phind"/>
+    <hyperlink ref="F39" r:id="rId33" display="https://www.phind.com/agent?cache=clvbhivv1000tjq0836ad8yim"/>
+    <hyperlink ref="G39" r:id="rId34" display="https://github.com/raian621/llm-prompting-assignment/tree/main/tabnine/index.html"/>
+    <hyperlink ref="H39" r:id="rId35" display="https://raian621.github.io/llm-prompting-assignment/phind/index.html"/>
+    <hyperlink ref="E43" r:id="rId36" display="blackbox"/>
+    <hyperlink ref="G43" r:id="rId37" display="https://github.com/raian621/llm-prompting-assignment/tree/main/blackbox/index.html"/>
+    <hyperlink ref="H43" r:id="rId38" display="https://raian621.github.io/llm-prompting-assignment/blackbox/index.html"/>
+    <hyperlink ref="E47" r:id="rId39" display="double"/>
+    <hyperlink ref="G47" r:id="rId40" display="https://github.com/raian621/llm-prompting-assignment/tree/main/double/index.html"/>
+    <hyperlink ref="H47" r:id="rId41" display="https://raian621.github.io/llm-prompting-assignment/double/index.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3396,7 +3576,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId17"/>
+  <legacyDrawing r:id="rId42"/>
 </worksheet>
 </file>
 
@@ -3407,8 +3587,8 @@
   </sheetPr>
   <dimension ref="A1:X895"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3456,7 +3636,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -3467,7 +3647,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
@@ -3517,37 +3697,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="26" t="s">
+        <v>70</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="15" t="s">
+      <c r="G3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="16" t="n">
+      <c r="H3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>22</v>
+      <c r="K3" s="16" t="s">
+        <v>72</v>
       </c>
-      <c r="L3" s="18" t="s">
-        <v>23</v>
+      <c r="L3" s="17" t="s">
+        <v>73</v>
       </c>
-      <c r="M3" s="19" t="s">
-        <v>24</v>
+      <c r="M3" s="18" t="s">
+        <v>74</v>
       </c>
-      <c r="N3" s="16" t="s">
-        <v>25</v>
+      <c r="N3" s="15" t="s">
+        <v>75</v>
       </c>
-      <c r="O3" s="16"/>
+      <c r="O3" s="15"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -3565,19 +3751,19 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="20" t="s">
-        <v>26</v>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="19" t="s">
+        <v>76</v>
       </c>
-      <c r="J4" s="16" t="n">
+      <c r="J4" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -3595,15 +3781,15 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -3621,15 +3807,15 @@
       <c r="D6" s="9"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -3645,19 +3831,23 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="21" t="s">
-        <v>27</v>
+      <c r="E7" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
+      <c r="G7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -3675,15 +3865,15 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -3701,15 +3891,15 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -3725,17 +3915,17 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -3751,19 +3941,23 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
+      <c r="H11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -3781,15 +3975,15 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -3807,15 +4001,15 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -3831,17 +4025,17 @@
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -3857,19 +4051,23 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
+      <c r="G15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -3887,15 +4085,15 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -3913,15 +4111,15 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -3937,17 +4135,17 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -3963,19 +4161,23 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="21" t="s">
-        <v>33</v>
+      <c r="E19" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
+      <c r="G19" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -3993,15 +4195,15 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -4019,15 +4221,15 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -4043,17 +4245,17 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -4069,19 +4271,23 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="21" t="s">
-        <v>34</v>
+      <c r="E23" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
+      <c r="G23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -4099,15 +4305,15 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -4125,15 +4331,15 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -4149,17 +4355,17 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -4175,19 +4381,23 @@
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="21" t="s">
-        <v>36</v>
+      <c r="E27" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
+      <c r="G27" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -4205,15 +4415,15 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -4231,15 +4441,15 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -4255,17 +4465,17 @@
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -4281,19 +4491,23 @@
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="21" t="s">
-        <v>38</v>
+      <c r="E31" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
+      <c r="G31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -4311,15 +4525,15 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
@@ -4337,15 +4551,15 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -4361,17 +4575,17 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -4387,19 +4601,23 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="21" t="s">
-        <v>40</v>
+      <c r="E35" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
+      <c r="G35" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -4417,15 +4635,15 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -4443,15 +4661,15 @@
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -4467,17 +4685,17 @@
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -4493,19 +4711,23 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="21" t="s">
-        <v>41</v>
+      <c r="E39" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
+      <c r="G39" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -4523,15 +4745,15 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
@@ -4549,15 +4771,15 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -4573,17 +4795,17 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
@@ -4599,19 +4821,23 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="21" t="s">
-        <v>42</v>
+      <c r="E43" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
+      <c r="G43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -4629,15 +4855,15 @@
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
@@ -4655,15 +4881,15 @@
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -4679,17 +4905,17 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
@@ -4705,19 +4931,23 @@
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="21" t="s">
-        <v>43</v>
+      <c r="E47" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
+      <c r="G47" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
@@ -4735,15 +4965,15 @@
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
@@ -4761,15 +4991,15 @@
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
@@ -4784,37 +5014,37 @@
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="25"/>
-      <c r="R50" s="25"/>
-      <c r="S50" s="25"/>
-      <c r="T50" s="25"/>
-      <c r="U50" s="25"/>
-      <c r="V50" s="25"/>
-      <c r="W50" s="25"/>
-      <c r="X50" s="25"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="27"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -4834,13 +5064,13 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -4860,13 +5090,13 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -4886,13 +5116,13 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -4912,13 +5142,13 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -4938,13 +5168,13 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -4964,13 +5194,13 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -4990,13 +5220,13 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -5016,13 +5246,13 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -5042,13 +5272,13 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -5068,13 +5298,13 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -5094,13 +5324,13 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -5120,13 +5350,13 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -5146,13 +5376,13 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -5172,13 +5402,13 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -5198,13 +5428,13 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -5224,13 +5454,13 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -5250,13 +5480,13 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -5276,13 +5506,13 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -5302,13 +5532,13 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -5328,13 +5558,13 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -5354,13 +5584,13 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -5380,13 +5610,13 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -5406,13 +5636,13 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -5432,13 +5662,13 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -5458,13 +5688,13 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -5484,13 +5714,13 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -5510,13 +5740,13 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -5536,13 +5766,13 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -5562,13 +5792,13 @@
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -5588,13 +5818,13 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -5614,13 +5844,13 @@
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -5640,13 +5870,13 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -5666,13 +5896,13 @@
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -5692,13 +5922,13 @@
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -5718,13 +5948,13 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -5744,13 +5974,13 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -5770,13 +6000,13 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -5796,13 +6026,13 @@
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -5822,13 +6052,13 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -5848,13 +6078,13 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -5874,13 +6104,13 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -5900,13 +6130,13 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
@@ -5926,13 +6156,13 @@
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -5952,13 +6182,13 @@
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
@@ -5978,13 +6208,13 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -6004,13 +6234,13 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -6030,13 +6260,13 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -6056,13 +6286,13 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -6082,13 +6312,13 @@
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -6108,13 +6338,13 @@
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="26"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
@@ -6134,13 +6364,13 @@
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
@@ -6160,13 +6390,13 @@
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="2"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
@@ -6186,13 +6416,13 @@
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
@@ -6212,13 +6442,13 @@
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="26"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
@@ -6238,13 +6468,13 @@
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
@@ -6264,13 +6494,13 @@
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
@@ -6290,13 +6520,13 @@
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
@@ -6316,13 +6546,13 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="2"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
@@ -6342,13 +6572,13 @@
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="2"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
@@ -6368,13 +6598,13 @@
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="2"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
@@ -6394,13 +6624,13 @@
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="2"/>
-      <c r="B112" s="26"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="26"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
@@ -6420,13 +6650,13 @@
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="2"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="26"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
@@ -6446,13 +6676,13 @@
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="2"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="26"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
@@ -6472,13 +6702,13 @@
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="2"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="26"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="26"/>
-      <c r="G115" s="26"/>
-      <c r="H115" s="26"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
@@ -26834,17 +27064,41 @@
     <mergeCell ref="H47:H50"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId2" display="Ask Codi"/>
-    <hyperlink ref="E11" r:id="rId3" display="You"/>
-    <hyperlink ref="E15" r:id="rId4" display="Google Bard (Gemini)"/>
-    <hyperlink ref="E19" r:id="rId5" display="GitHub Copilot"/>
-    <hyperlink ref="E23" r:id="rId6" display="Amazom Whisperer"/>
-    <hyperlink ref="E27" r:id="rId7" display="Microsoft Copilot"/>
-    <hyperlink ref="E31" r:id="rId8" display="Tabnine"/>
-    <hyperlink ref="E35" r:id="rId9" display="Codeium"/>
-    <hyperlink ref="E39" r:id="rId10" display="Phind"/>
-    <hyperlink ref="E43" r:id="rId11" display="blackbox"/>
-    <hyperlink ref="E47" r:id="rId12" display="double"/>
+    <hyperlink ref="G3" r:id="rId2" display="https://github.com/raian621/llm-prompting-assignment/tree/main/chatgpt/index.html"/>
+    <hyperlink ref="H3" r:id="rId3" display="https://raian621.github.io/llm-prompting-assignment/chatgpt/index.html"/>
+    <hyperlink ref="E7" r:id="rId4" display="Ask Codi"/>
+    <hyperlink ref="G7" r:id="rId5" display="https://github.com/raian621/llm-prompting-assignment/tree/main/ask-codi/index.html"/>
+    <hyperlink ref="H7" r:id="rId6" display="https://raian621.github.io/llm-prompting-assignment/ask-codi/index.html"/>
+    <hyperlink ref="E11" r:id="rId7" display="You"/>
+    <hyperlink ref="G11" r:id="rId8" display="https://github.com/raian621/llm-prompting-assignment/tree/main/you/index.html"/>
+    <hyperlink ref="H11" r:id="rId9" display="https://raian621.github.io/llm-prompting-assignment/you/index.html"/>
+    <hyperlink ref="E15" r:id="rId10" display="Google Bard (Gemini)"/>
+    <hyperlink ref="G15" r:id="rId11" display="https://github.com/raian621/llm-prompting-assignment/tree/main/gemini/index.html"/>
+    <hyperlink ref="H15" r:id="rId12" display="https://raian621.github.io/llm-prompting-assignment/gemini/index.html"/>
+    <hyperlink ref="E19" r:id="rId13" display="GitHub Copilot"/>
+    <hyperlink ref="G19" r:id="rId14" display="https://github.com/raian621/llm-prompting-assignment/tree/main/github-copilot/index.html"/>
+    <hyperlink ref="H19" r:id="rId15" display="https://raian621.github.io/llm-prompting-assignment/github-copilot/index.html"/>
+    <hyperlink ref="E23" r:id="rId16" display="Amazom Whisperer"/>
+    <hyperlink ref="G23" r:id="rId17" display="https://github.com/raian621/llm-prompting-assignment/tree/main/amazon-whisperer/index.html"/>
+    <hyperlink ref="H23" r:id="rId18" display="https://raian621.github.io/llm-prompting-assignment/amazon-whisperer/index.html"/>
+    <hyperlink ref="E27" r:id="rId19" display="Microsoft Copilot"/>
+    <hyperlink ref="G27" r:id="rId20" display="https://github.com/raian621/llm-prompting-assignment/tree/main/microsoft-copilot/index.html"/>
+    <hyperlink ref="H27" r:id="rId21" display="https://raian621.github.io/llm-prompting-assignment/microsoft-copilot.index.html"/>
+    <hyperlink ref="E31" r:id="rId22" display="Tabnine"/>
+    <hyperlink ref="G31" r:id="rId23" display="https://github.com/raian621/llm-prompting-assignment/tree/main/tabnine/index.html"/>
+    <hyperlink ref="H31" r:id="rId24" display="https://raian621.github.io/llm-prompting-assignment/tabnine/index.html"/>
+    <hyperlink ref="E35" r:id="rId25" display="Codeium"/>
+    <hyperlink ref="G35" r:id="rId26" display="https://github.com/raian621/llm-prompting-assignment/tree/main/codeium/index.html"/>
+    <hyperlink ref="H35" r:id="rId27" display="https://raian621.github.io/llm-prompting-assignment/codeium/index.html"/>
+    <hyperlink ref="E39" r:id="rId28" display="Phind"/>
+    <hyperlink ref="G39" r:id="rId29" display="https://github.com/raian621/llm-prompting-assignment/tree/main/tabnine/index.html"/>
+    <hyperlink ref="H39" r:id="rId30" display="https://raian621.github.io/llm-prompting-assignment/phind/index.html"/>
+    <hyperlink ref="E43" r:id="rId31" display="blackbox"/>
+    <hyperlink ref="G43" r:id="rId32" display="https://github.com/raian621/llm-prompting-assignment/tree/main/blackbox/index.html"/>
+    <hyperlink ref="H43" r:id="rId33" display="https://raian621.github.io/llm-prompting-assignment/blackbox/index.html"/>
+    <hyperlink ref="E47" r:id="rId34" display="double"/>
+    <hyperlink ref="G47" r:id="rId35" display="https://github.com/raian621/llm-prompting-assignment/tree/main/double/index.html"/>
+    <hyperlink ref="H47" r:id="rId36" display="https://raian621.github.io/llm-prompting-assignment/double/index.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -26853,6 +27107,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId13"/>
+  <legacyDrawing r:id="rId37"/>
 </worksheet>
 </file>
--- a/Ryan_Bell_LLM_Sheet.xlsx
+++ b/Ryan_Bell_LLM_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Creation_Sheet" sheetId="1" state="visible" r:id="rId3"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
   <si>
     <t xml:space="preserve">WAVE errors (https://wave.webaim.org/)</t>
   </si>
@@ -246,10 +246,10 @@
     <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/chatgpt/index.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Ask Codi</t>
+    <t xml:space="preserve">n/a</t>
   </si>
   <si>
-    <t xml:space="preserve">n/a</t>
+    <t xml:space="preserve">Ask Codi</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/ask-codi/index.html</t>
@@ -261,13 +261,28 @@
     <t xml:space="preserve">You</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.blackbox.ai/share/51850356-5da9-47f3-89bb-cd0163aa6369</t>
+    <t xml:space="preserve">https://you.com/search?q=Please+generate+a+portfolio+website+for+an+entry+level+software+developer+who+is+experienced+in...&amp;cid=c1_60af780d-a3d6-40fc-98af-3041c08fdd82&amp;tbm=youchat</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/you/index.html</t>
   </si>
   <si>
     <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/you/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 X Very low contrast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4 Distinguishable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrast (Enhanced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAA</t>
   </si>
   <si>
     <t xml:space="preserve">Google Bard (Gemini)</t>
@@ -306,16 +321,13 @@
     <t xml:space="preserve">3.1 Readable</t>
   </si>
   <si>
-    <t xml:space="preserve">WCAG 2.0</t>
+    <t xml:space="preserve">3.1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Success Criteria 3.1.1 Language of Page (A)</t>
+    <t xml:space="preserve">Success Criteria 3.1.1 Language of Page</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 X Device dependent event handler</t>
   </si>
   <si>
     <t xml:space="preserve">Microsoft Copilot</t>
@@ -327,7 +339,7 @@
     <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/microsoft-copilot/index.html</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/microsoft-copilot.index.html</t>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/microsoft-copilot/index.html</t>
   </si>
   <si>
     <t xml:space="preserve">Tabnine</t>
@@ -395,9 +407,6 @@
     <t xml:space="preserve">1 X Linked image missing alternative text</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4 Distinguishable</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4.4</t>
   </si>
   <si>
@@ -408,6 +417,12 @@
   </si>
   <si>
     <t xml:space="preserve">1 X Very low contrast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://you.com/search?q=I+ran+the+code+above+through+a+couple+of+online+accessibility+checkers+and+got+the+following+errors%3A...&amp;cid=c1_923b64a7-af9d-4755-82de-033a643fd86e&amp;tbm=youchat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/microsoft-copilot.index.html</t>
   </si>
 </sst>
 </file>
@@ -707,11 +722,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -982,8 +997,8 @@
   </sheetPr>
   <dimension ref="A1:O906"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E19" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P28" activeCellId="0" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1093,7 +1108,9 @@
       <c r="H3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
       <c r="L3" s="17"/>
@@ -1158,10 +1175,10 @@
       <c r="C7" s="9"/>
       <c r="D7" s="11"/>
       <c r="E7" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>25</v>
@@ -1169,7 +1186,9 @@
       <c r="H7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -1245,13 +1264,27 @@
       <c r="H11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
+      <c r="I11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9"/>
@@ -1310,18 +1343,20 @@
       <c r="C15" s="9"/>
       <c r="D15" s="11"/>
       <c r="E15" s="20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
-      <c r="I15" s="15"/>
+      <c r="I15" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
@@ -1386,16 +1421,16 @@
       <c r="C19" s="9"/>
       <c r="D19" s="11"/>
       <c r="E19" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
-      <c r="G19" s="22" t="s">
-        <v>36</v>
+      <c r="G19" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
@@ -1462,34 +1497,34 @@
       <c r="C23" s="9"/>
       <c r="D23" s="11"/>
       <c r="E23" s="20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
-      <c r="I23" s="23" t="s">
-        <v>41</v>
+      <c r="I23" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="J23" s="15" t="n">
         <v>1</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
-      <c r="M23" s="23" t="s">
-        <v>44</v>
+      <c r="M23" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O23" s="15" t="n">
         <v>2</v>
@@ -1504,12 +1539,8 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
@@ -1556,24 +1587,34 @@
       <c r="C27" s="9"/>
       <c r="D27" s="11"/>
       <c r="E27" s="20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
+      <c r="K27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" s="15" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="9"/>
@@ -1632,16 +1673,16 @@
       <c r="C31" s="9"/>
       <c r="D31" s="11"/>
       <c r="E31" s="20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
@@ -1708,16 +1749,16 @@
       <c r="C35" s="9"/>
       <c r="D35" s="11"/>
       <c r="E35" s="20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
@@ -1784,16 +1825,16 @@
       <c r="C39" s="9"/>
       <c r="D39" s="11"/>
       <c r="E39" s="20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
@@ -1860,16 +1901,16 @@
       <c r="C43" s="9"/>
       <c r="D43" s="11"/>
       <c r="E43" s="20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
@@ -1936,16 +1977,16 @@
       <c r="C47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
@@ -3535,7 +3576,7 @@
     <hyperlink ref="G7" r:id="rId6" display="https://github.com/raian621/llm-prompting-assignment/tree/main/ask-codi/index.html"/>
     <hyperlink ref="H7" r:id="rId7" display="https://raian621.github.io/llm-prompting-assignment/ask-codi/index.html"/>
     <hyperlink ref="E11" r:id="rId8" display="You"/>
-    <hyperlink ref="F11" r:id="rId9" display="https://www.blackbox.ai/share/51850356-5da9-47f3-89bb-cd0163aa6369"/>
+    <hyperlink ref="F11" r:id="rId9" display="https://you.com/search?q=Please+generate+a+portfolio+website+for+an+entry+level+software+developer+who+is+experienced+in...&amp;cid=c1_60af780d-a3d6-40fc-98af-3041c08fdd82&amp;tbm=youchat"/>
     <hyperlink ref="G11" r:id="rId10" display="https://github.com/raian621/llm-prompting-assignment/tree/main/you/index.html"/>
     <hyperlink ref="H11" r:id="rId11" display="https://raian621.github.io/llm-prompting-assignment/you/index.html"/>
     <hyperlink ref="E15" r:id="rId12" display="Google Bard (Gemini)"/>
@@ -3551,7 +3592,7 @@
     <hyperlink ref="E27" r:id="rId22" display="Microsoft Copilot"/>
     <hyperlink ref="F27" r:id="rId23" display="https://copilot.microsoft.com/sl/eGI3mUKzzbM"/>
     <hyperlink ref="G27" r:id="rId24" display="https://github.com/raian621/llm-prompting-assignment/tree/main/microsoft-copilot/index.html"/>
-    <hyperlink ref="H27" r:id="rId25" display="https://raian621.github.io/llm-prompting-assignment/microsoft-copilot.index.html"/>
+    <hyperlink ref="H27" r:id="rId25" display="https://raian621.github.io/llm-prompting-assignment/microsoft-copilot/index.html"/>
     <hyperlink ref="E31" r:id="rId26" display="Tabnine"/>
     <hyperlink ref="G31" r:id="rId27" display="https://github.com/raian621/llm-prompting-assignment/tree/main/tabnine/index.html"/>
     <hyperlink ref="H31" r:id="rId28" display="https://raian621.github.io/llm-prompting-assignment/tabnine/index.html"/>
@@ -3587,8 +3628,8 @@
   </sheetPr>
   <dimension ref="A1:X895"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H47" activeCellId="0" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3647,7 +3688,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
@@ -3697,18 +3738,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="G3" s="13" t="s">
         <v>21</v>
       </c>
@@ -3716,22 +3759,22 @@
         <v>22</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J3" s="15" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="2"/>
@@ -3754,7 +3797,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="12"/>
       <c r="I4" s="19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J4" s="15" t="n">
         <v>1</v>
@@ -3832,9 +3875,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="12"/>
       <c r="G7" s="21" t="s">
         <v>25</v>
       </c>
@@ -3944,7 +3989,9 @@
       <c r="E11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="G11" s="12" t="s">
         <v>29</v>
       </c>
@@ -4052,14 +4099,16 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="G15" s="12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -4162,14 +4211,16 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="22" t="s">
-        <v>36</v>
+      <c r="F19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
@@ -4195,8 +4246,8 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
@@ -4221,8 +4272,8 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
@@ -4272,14 +4323,16 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="G23" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
@@ -4382,14 +4435,14 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
@@ -4492,14 +4545,14 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
@@ -4602,14 +4655,14 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
@@ -4712,14 +4765,14 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
@@ -4822,14 +4875,14 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
@@ -4932,14 +4985,14 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
@@ -27070,35 +27123,36 @@
     <hyperlink ref="G7" r:id="rId5" display="https://github.com/raian621/llm-prompting-assignment/tree/main/ask-codi/index.html"/>
     <hyperlink ref="H7" r:id="rId6" display="https://raian621.github.io/llm-prompting-assignment/ask-codi/index.html"/>
     <hyperlink ref="E11" r:id="rId7" display="You"/>
-    <hyperlink ref="G11" r:id="rId8" display="https://github.com/raian621/llm-prompting-assignment/tree/main/you/index.html"/>
-    <hyperlink ref="H11" r:id="rId9" display="https://raian621.github.io/llm-prompting-assignment/you/index.html"/>
-    <hyperlink ref="E15" r:id="rId10" display="Google Bard (Gemini)"/>
-    <hyperlink ref="G15" r:id="rId11" display="https://github.com/raian621/llm-prompting-assignment/tree/main/gemini/index.html"/>
-    <hyperlink ref="H15" r:id="rId12" display="https://raian621.github.io/llm-prompting-assignment/gemini/index.html"/>
-    <hyperlink ref="E19" r:id="rId13" display="GitHub Copilot"/>
-    <hyperlink ref="G19" r:id="rId14" display="https://github.com/raian621/llm-prompting-assignment/tree/main/github-copilot/index.html"/>
-    <hyperlink ref="H19" r:id="rId15" display="https://raian621.github.io/llm-prompting-assignment/github-copilot/index.html"/>
-    <hyperlink ref="E23" r:id="rId16" display="Amazom Whisperer"/>
-    <hyperlink ref="G23" r:id="rId17" display="https://github.com/raian621/llm-prompting-assignment/tree/main/amazon-whisperer/index.html"/>
-    <hyperlink ref="H23" r:id="rId18" display="https://raian621.github.io/llm-prompting-assignment/amazon-whisperer/index.html"/>
-    <hyperlink ref="E27" r:id="rId19" display="Microsoft Copilot"/>
-    <hyperlink ref="G27" r:id="rId20" display="https://github.com/raian621/llm-prompting-assignment/tree/main/microsoft-copilot/index.html"/>
-    <hyperlink ref="H27" r:id="rId21" display="https://raian621.github.io/llm-prompting-assignment/microsoft-copilot.index.html"/>
-    <hyperlink ref="E31" r:id="rId22" display="Tabnine"/>
-    <hyperlink ref="G31" r:id="rId23" display="https://github.com/raian621/llm-prompting-assignment/tree/main/tabnine/index.html"/>
-    <hyperlink ref="H31" r:id="rId24" display="https://raian621.github.io/llm-prompting-assignment/tabnine/index.html"/>
-    <hyperlink ref="E35" r:id="rId25" display="Codeium"/>
-    <hyperlink ref="G35" r:id="rId26" display="https://github.com/raian621/llm-prompting-assignment/tree/main/codeium/index.html"/>
-    <hyperlink ref="H35" r:id="rId27" display="https://raian621.github.io/llm-prompting-assignment/codeium/index.html"/>
-    <hyperlink ref="E39" r:id="rId28" display="Phind"/>
-    <hyperlink ref="G39" r:id="rId29" display="https://github.com/raian621/llm-prompting-assignment/tree/main/tabnine/index.html"/>
-    <hyperlink ref="H39" r:id="rId30" display="https://raian621.github.io/llm-prompting-assignment/phind/index.html"/>
-    <hyperlink ref="E43" r:id="rId31" display="blackbox"/>
-    <hyperlink ref="G43" r:id="rId32" display="https://github.com/raian621/llm-prompting-assignment/tree/main/blackbox/index.html"/>
-    <hyperlink ref="H43" r:id="rId33" display="https://raian621.github.io/llm-prompting-assignment/blackbox/index.html"/>
-    <hyperlink ref="E47" r:id="rId34" display="double"/>
-    <hyperlink ref="G47" r:id="rId35" display="https://github.com/raian621/llm-prompting-assignment/tree/main/double/index.html"/>
-    <hyperlink ref="H47" r:id="rId36" display="https://raian621.github.io/llm-prompting-assignment/double/index.html"/>
+    <hyperlink ref="F11" r:id="rId8" display="https://you.com/search?q=I+ran+the+code+above+through+a+couple+of+online+accessibility+checkers+and+got+the+following+errors%3A...&amp;cid=c1_923b64a7-af9d-4755-82de-033a643fd86e&amp;tbm=youchat"/>
+    <hyperlink ref="G11" r:id="rId9" display="https://github.com/raian621/llm-prompting-assignment/tree/main/you/index.html"/>
+    <hyperlink ref="H11" r:id="rId10" display="https://raian621.github.io/llm-prompting-assignment/you/index.html"/>
+    <hyperlink ref="E15" r:id="rId11" display="Google Bard (Gemini)"/>
+    <hyperlink ref="G15" r:id="rId12" display="https://github.com/raian621/llm-prompting-assignment/tree/main/gemini/index.html"/>
+    <hyperlink ref="H15" r:id="rId13" display="https://raian621.github.io/llm-prompting-assignment/gemini/index.html"/>
+    <hyperlink ref="E19" r:id="rId14" display="GitHub Copilot"/>
+    <hyperlink ref="G19" r:id="rId15" display="https://github.com/raian621/llm-prompting-assignment/tree/main/github-copilot/index.html"/>
+    <hyperlink ref="H19" r:id="rId16" display="https://raian621.github.io/llm-prompting-assignment/github-copilot/index.html"/>
+    <hyperlink ref="E23" r:id="rId17" display="Amazom Whisperer"/>
+    <hyperlink ref="G23" r:id="rId18" display="https://github.com/raian621/llm-prompting-assignment/tree/main/amazon-whisperer/index.html"/>
+    <hyperlink ref="H23" r:id="rId19" display="https://raian621.github.io/llm-prompting-assignment/amazon-whisperer/index.html"/>
+    <hyperlink ref="E27" r:id="rId20" display="Microsoft Copilot"/>
+    <hyperlink ref="G27" r:id="rId21" display="https://github.com/raian621/llm-prompting-assignment/tree/main/microsoft-copilot/index.html"/>
+    <hyperlink ref="H27" r:id="rId22" display="https://raian621.github.io/llm-prompting-assignment/microsoft-copilot.index.html"/>
+    <hyperlink ref="E31" r:id="rId23" display="Tabnine"/>
+    <hyperlink ref="G31" r:id="rId24" display="https://github.com/raian621/llm-prompting-assignment/tree/main/tabnine/index.html"/>
+    <hyperlink ref="H31" r:id="rId25" display="https://raian621.github.io/llm-prompting-assignment/tabnine/index.html"/>
+    <hyperlink ref="E35" r:id="rId26" display="Codeium"/>
+    <hyperlink ref="G35" r:id="rId27" display="https://github.com/raian621/llm-prompting-assignment/tree/main/codeium/index.html"/>
+    <hyperlink ref="H35" r:id="rId28" display="https://raian621.github.io/llm-prompting-assignment/codeium/index.html"/>
+    <hyperlink ref="E39" r:id="rId29" display="Phind"/>
+    <hyperlink ref="G39" r:id="rId30" display="https://github.com/raian621/llm-prompting-assignment/tree/main/tabnine/index.html"/>
+    <hyperlink ref="H39" r:id="rId31" display="https://raian621.github.io/llm-prompting-assignment/phind/index.html"/>
+    <hyperlink ref="E43" r:id="rId32" display="blackbox"/>
+    <hyperlink ref="G43" r:id="rId33" display="https://github.com/raian621/llm-prompting-assignment/tree/main/blackbox/index.html"/>
+    <hyperlink ref="H43" r:id="rId34" display="https://raian621.github.io/llm-prompting-assignment/blackbox/index.html"/>
+    <hyperlink ref="E47" r:id="rId35" display="double"/>
+    <hyperlink ref="G47" r:id="rId36" display="https://github.com/raian621/llm-prompting-assignment/tree/main/double/index.html"/>
+    <hyperlink ref="H47" r:id="rId37" display="https://raian621.github.io/llm-prompting-assignment/double/index.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -27107,6 +27161,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId37"/>
+  <legacyDrawing r:id="rId38"/>
 </worksheet>
 </file>
--- a/Ryan_Bell_LLM_Sheet.xlsx
+++ b/Ryan_Bell_LLM_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Creation_Sheet" sheetId="1" state="visible" r:id="rId3"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
   <si>
     <t xml:space="preserve">WAVE errors (https://wave.webaim.org/)</t>
   </si>
@@ -246,10 +246,13 @@
     <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/chatgpt/index.html</t>
   </si>
   <si>
-    <t xml:space="preserve">n/a</t>
+    <t xml:space="preserve">None</t>
   </si>
   <si>
     <t xml:space="preserve">Ask Codi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n/a</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/ask-codi/index.html</t>
@@ -324,7 +327,7 @@
     <t xml:space="preserve">3.1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Success Criteria 3.1.1 Language of Page</t>
+    <t xml:space="preserve">Language of Page</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -422,7 +425,13 @@
     <t xml:space="preserve">https://you.com/search?q=I+ran+the+code+above+through+a+couple+of+online+accessibility+checkers+and+got+the+following+errors%3A...&amp;cid=c1_923b64a7-af9d-4755-82de-033a643fd86e&amp;tbm=youchat</t>
   </si>
   <si>
+    <t xml:space="preserve">https://copilot.microsoft.com/sl/gMszgQ8X9eC</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/microsoft-copilot.index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.blackbox.ai/share/3d6c22e2-66e1-487e-b651-f20b36edee82</t>
   </si>
 </sst>
 </file>
@@ -997,8 +1006,8 @@
   </sheetPr>
   <dimension ref="A1:O906"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P28" activeCellId="0" sqref="P28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I44" activeCellId="0" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1112,7 +1121,9 @@
         <v>23</v>
       </c>
       <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
+      <c r="K3" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="L3" s="17"/>
       <c r="M3" s="18"/>
       <c r="N3" s="15"/>
@@ -1178,19 +1189,21 @@
         <v>24</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="K7" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -1253,34 +1266,34 @@
       <c r="C11" s="9"/>
       <c r="D11" s="11"/>
       <c r="E11" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J11" s="15" t="n">
         <v>3</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O11" s="15" t="n">
         <v>3</v>
@@ -1343,22 +1356,24 @@
       <c r="C15" s="9"/>
       <c r="D15" s="11"/>
       <c r="E15" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
+      <c r="K15" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
@@ -1421,24 +1436,36 @@
       <c r="C19" s="9"/>
       <c r="D19" s="11"/>
       <c r="E19" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="23" t="s">
-        <v>41</v>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15" t="s">
+        <v>33</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>42</v>
+      <c r="L19" s="15" t="s">
+        <v>34</v>
       </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
+      <c r="M19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="15" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9"/>
@@ -1497,34 +1524,34 @@
       <c r="C23" s="9"/>
       <c r="D23" s="11"/>
       <c r="E23" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J23" s="15" t="n">
         <v>1</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O23" s="15" t="n">
         <v>2</v>
@@ -1587,30 +1614,32 @@
       <c r="C27" s="9"/>
       <c r="D27" s="11"/>
       <c r="E27" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
-      <c r="I27" s="15"/>
+      <c r="I27" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="J27" s="15"/>
       <c r="K27" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O27" s="15" t="n">
         <v>4</v>
@@ -1673,16 +1702,16 @@
       <c r="C31" s="9"/>
       <c r="D31" s="11"/>
       <c r="E31" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
@@ -1749,20 +1778,24 @@
       <c r="C35" s="9"/>
       <c r="D35" s="11"/>
       <c r="E35" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="12" t="s">
-        <v>60</v>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15" t="s">
+        <v>23</v>
       </c>
-      <c r="H35" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
       <c r="N35" s="15"/>
@@ -1825,20 +1858,24 @@
       <c r="C39" s="9"/>
       <c r="D39" s="11"/>
       <c r="E39" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
-      <c r="I39" s="15"/>
+      <c r="I39" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
+      <c r="K39" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
@@ -1901,23 +1938,33 @@
       <c r="C43" s="9"/>
       <c r="D43" s="11"/>
       <c r="E43" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
-      <c r="I43" s="15"/>
+      <c r="I43" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
+      <c r="K43" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="O43" s="15"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1977,16 +2024,16 @@
       <c r="C47" s="9"/>
       <c r="D47" s="11"/>
       <c r="E47" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
@@ -3628,8 +3675,8 @@
   </sheetPr>
   <dimension ref="A1:X895"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H47" activeCellId="0" sqref="H47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C22" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F54" activeCellId="0" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3688,7 +3735,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
@@ -3738,19 +3785,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>21</v>
@@ -3759,22 +3806,22 @@
         <v>22</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" s="15" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="2"/>
@@ -3797,7 +3844,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="12"/>
       <c r="I4" s="19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J4" s="15" t="n">
         <v>1</v>
@@ -3878,13 +3925,13 @@
         <v>24</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -3987,16 +4034,16 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -4099,16 +4146,16 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -4211,16 +4258,16 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
@@ -4323,16 +4370,16 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
@@ -4435,14 +4482,16 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="G27" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
@@ -4545,14 +4594,14 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
@@ -4655,14 +4704,16 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12" t="s">
         <v>60</v>
       </c>
+      <c r="F35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="H35" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
@@ -4765,14 +4816,16 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
-      <c r="F39" s="12"/>
+      <c r="F39" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="G39" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
@@ -4875,14 +4928,16 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
-      <c r="F43" s="12"/>
+      <c r="F43" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="G43" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
@@ -4985,14 +5040,16 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12" t="s">
         <v>70</v>
       </c>
+      <c r="F47" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="H47" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
@@ -27136,23 +27193,24 @@
     <hyperlink ref="G23" r:id="rId18" display="https://github.com/raian621/llm-prompting-assignment/tree/main/amazon-whisperer/index.html"/>
     <hyperlink ref="H23" r:id="rId19" display="https://raian621.github.io/llm-prompting-assignment/amazon-whisperer/index.html"/>
     <hyperlink ref="E27" r:id="rId20" display="Microsoft Copilot"/>
-    <hyperlink ref="G27" r:id="rId21" display="https://github.com/raian621/llm-prompting-assignment/tree/main/microsoft-copilot/index.html"/>
-    <hyperlink ref="H27" r:id="rId22" display="https://raian621.github.io/llm-prompting-assignment/microsoft-copilot.index.html"/>
-    <hyperlink ref="E31" r:id="rId23" display="Tabnine"/>
-    <hyperlink ref="G31" r:id="rId24" display="https://github.com/raian621/llm-prompting-assignment/tree/main/tabnine/index.html"/>
-    <hyperlink ref="H31" r:id="rId25" display="https://raian621.github.io/llm-prompting-assignment/tabnine/index.html"/>
-    <hyperlink ref="E35" r:id="rId26" display="Codeium"/>
-    <hyperlink ref="G35" r:id="rId27" display="https://github.com/raian621/llm-prompting-assignment/tree/main/codeium/index.html"/>
-    <hyperlink ref="H35" r:id="rId28" display="https://raian621.github.io/llm-prompting-assignment/codeium/index.html"/>
-    <hyperlink ref="E39" r:id="rId29" display="Phind"/>
-    <hyperlink ref="G39" r:id="rId30" display="https://github.com/raian621/llm-prompting-assignment/tree/main/tabnine/index.html"/>
-    <hyperlink ref="H39" r:id="rId31" display="https://raian621.github.io/llm-prompting-assignment/phind/index.html"/>
-    <hyperlink ref="E43" r:id="rId32" display="blackbox"/>
-    <hyperlink ref="G43" r:id="rId33" display="https://github.com/raian621/llm-prompting-assignment/tree/main/blackbox/index.html"/>
-    <hyperlink ref="H43" r:id="rId34" display="https://raian621.github.io/llm-prompting-assignment/blackbox/index.html"/>
-    <hyperlink ref="E47" r:id="rId35" display="double"/>
-    <hyperlink ref="G47" r:id="rId36" display="https://github.com/raian621/llm-prompting-assignment/tree/main/double/index.html"/>
-    <hyperlink ref="H47" r:id="rId37" display="https://raian621.github.io/llm-prompting-assignment/double/index.html"/>
+    <hyperlink ref="F27" r:id="rId21" display="https://copilot.microsoft.com/sl/gMszgQ8X9eC"/>
+    <hyperlink ref="G27" r:id="rId22" display="https://github.com/raian621/llm-prompting-assignment/tree/main/microsoft-copilot/index.html"/>
+    <hyperlink ref="H27" r:id="rId23" display="https://raian621.github.io/llm-prompting-assignment/microsoft-copilot.index.html"/>
+    <hyperlink ref="E31" r:id="rId24" display="Tabnine"/>
+    <hyperlink ref="G31" r:id="rId25" display="https://github.com/raian621/llm-prompting-assignment/tree/main/tabnine/index.html"/>
+    <hyperlink ref="H31" r:id="rId26" display="https://raian621.github.io/llm-prompting-assignment/tabnine/index.html"/>
+    <hyperlink ref="E35" r:id="rId27" display="Codeium"/>
+    <hyperlink ref="G35" r:id="rId28" display="https://github.com/raian621/llm-prompting-assignment/tree/main/codeium/index.html"/>
+    <hyperlink ref="H35" r:id="rId29" display="https://raian621.github.io/llm-prompting-assignment/codeium/index.html"/>
+    <hyperlink ref="E39" r:id="rId30" display="Phind"/>
+    <hyperlink ref="G39" r:id="rId31" display="https://github.com/raian621/llm-prompting-assignment/tree/main/tabnine/index.html"/>
+    <hyperlink ref="H39" r:id="rId32" display="https://raian621.github.io/llm-prompting-assignment/phind/index.html"/>
+    <hyperlink ref="E43" r:id="rId33" display="blackbox"/>
+    <hyperlink ref="G43" r:id="rId34" display="https://github.com/raian621/llm-prompting-assignment/tree/main/blackbox/index.html"/>
+    <hyperlink ref="H43" r:id="rId35" display="https://raian621.github.io/llm-prompting-assignment/blackbox/index.html"/>
+    <hyperlink ref="E47" r:id="rId36" display="double"/>
+    <hyperlink ref="G47" r:id="rId37" display="https://github.com/raian621/llm-prompting-assignment/tree/main/double/index.html"/>
+    <hyperlink ref="H47" r:id="rId38" display="https://raian621.github.io/llm-prompting-assignment/double/index.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -27161,6 +27219,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId38"/>
+  <legacyDrawing r:id="rId39"/>
 </worksheet>
 </file>
--- a/Ryan_Bell_LLM_Sheet.xlsx
+++ b/Ryan_Bell_LLM_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Creation_Sheet" sheetId="1" state="visible" r:id="rId3"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="107">
   <si>
     <t xml:space="preserve">WAVE errors (https://wave.webaim.org/)</t>
   </si>
@@ -407,6 +407,12 @@
 Can you please fix the mentioned errors in the above code and provide the corrected source code?</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/chatgpt/fixed.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/chatgpt/fixed.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 X Linked image missing alternative text</t>
   </si>
   <si>
@@ -422,16 +428,76 @@
     <t xml:space="preserve">1 X Very low contrast</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/ask-codi/fixed.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/ask-codi/fixed.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://you.com/search?q=I+ran+the+code+above+through+a+couple+of+online+accessibility+checkers+and+got+the+following+errors%3A...&amp;cid=c1_923b64a7-af9d-4755-82de-033a643fd86e&amp;tbm=youchat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/you/fixed.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/you/fixed.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/gemini/fixed.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/gemini/fixed.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/github-copilot/fixed.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/github-copilot/fixed.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/amazon-whisperer/fixed.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/amazon-whisperer/fixed.html</t>
   </si>
   <si>
     <t xml:space="preserve">https://copilot.microsoft.com/sl/gMszgQ8X9eC</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/microsoft-copilot.index.html</t>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/microsoft-copilot/fixed.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/microsoft-copilot/fixed.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/tabnine/fixed.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/tabnine/fixed.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/codeium/fixed.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/codeium/fixed.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/phind/fixed.html</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.blackbox.ai/share/3d6c22e2-66e1-487e-b651-f20b36edee82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/blackbox/fixed.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/blackbox/fixed.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/double/fixed.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/double/fixed.html</t>
   </si>
 </sst>
 </file>
@@ -642,7 +708,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -748,6 +814,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1006,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:O906"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I44" activeCellId="0" sqref="I44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E16" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H43" activeCellId="0" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1713,9 +1783,13 @@
       <c r="H31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="15"/>
+      <c r="I31" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+      <c r="K31" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
@@ -2100,8 +2174,8 @@
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
+      <c r="G51" s="0"/>
+      <c r="H51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="25"/>
@@ -2109,8 +2183,8 @@
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
+      <c r="G52" s="0"/>
+      <c r="H52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="25"/>
@@ -2118,8 +2192,8 @@
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
+      <c r="G53" s="0"/>
+      <c r="H53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="25"/>
@@ -2127,8 +2201,8 @@
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
+      <c r="G54" s="0"/>
+      <c r="H54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="25"/>
@@ -2136,8 +2210,8 @@
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
+      <c r="G55" s="0"/>
+      <c r="H55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="25"/>
@@ -2145,8 +2219,8 @@
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
+      <c r="G56" s="0"/>
+      <c r="H56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="25"/>
@@ -2154,8 +2228,8 @@
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
+      <c r="G57" s="0"/>
+      <c r="H57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="25"/>
@@ -2163,8 +2237,8 @@
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
       <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="25"/>
@@ -2172,8 +2246,8 @@
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
       <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="G59" s="0"/>
+      <c r="H59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="25"/>
@@ -2181,8 +2255,8 @@
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
       <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
+      <c r="G60" s="0"/>
+      <c r="H60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="25"/>
@@ -2190,8 +2264,8 @@
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
       <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+      <c r="G61" s="0"/>
+      <c r="H61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="25"/>
@@ -2199,8 +2273,8 @@
       <c r="D62" s="25"/>
       <c r="E62" s="25"/>
       <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="G62" s="0"/>
+      <c r="H62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="25"/>
@@ -2208,8 +2282,8 @@
       <c r="D63" s="25"/>
       <c r="E63" s="25"/>
       <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
+      <c r="G63" s="0"/>
+      <c r="H63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="25"/>
@@ -2217,8 +2291,8 @@
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
+      <c r="G64" s="0"/>
+      <c r="H64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="25"/>
@@ -2226,8 +2300,8 @@
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
       <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
+      <c r="G65" s="0"/>
+      <c r="H65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="25"/>
@@ -2235,8 +2309,8 @@
       <c r="D66" s="25"/>
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
+      <c r="G66" s="0"/>
+      <c r="H66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="25"/>
@@ -2244,8 +2318,8 @@
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
+      <c r="G67" s="0"/>
+      <c r="H67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="25"/>
@@ -2253,8 +2327,8 @@
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
       <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
+      <c r="G68" s="0"/>
+      <c r="H68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="25"/>
@@ -2262,8 +2336,8 @@
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
+      <c r="G69" s="0"/>
+      <c r="H69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="25"/>
@@ -2271,8 +2345,8 @@
       <c r="D70" s="25"/>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
+      <c r="G70" s="0"/>
+      <c r="H70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="25"/>
@@ -2280,8 +2354,8 @@
       <c r="D71" s="25"/>
       <c r="E71" s="25"/>
       <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
+      <c r="G71" s="0"/>
+      <c r="H71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="25"/>
@@ -2289,8 +2363,8 @@
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
+      <c r="G72" s="0"/>
+      <c r="H72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="25"/>
@@ -2298,8 +2372,8 @@
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
       <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
+      <c r="G73" s="0"/>
+      <c r="H73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="25"/>
@@ -2307,8 +2381,8 @@
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
+      <c r="G74" s="0"/>
+      <c r="H74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="25"/>
@@ -2316,8 +2390,8 @@
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
+      <c r="G75" s="0"/>
+      <c r="H75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="25"/>
@@ -2325,8 +2399,8 @@
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
+      <c r="G76" s="0"/>
+      <c r="H76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="25"/>
@@ -2334,8 +2408,8 @@
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
+      <c r="G77" s="0"/>
+      <c r="H77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="25"/>
@@ -2343,8 +2417,8 @@
       <c r="D78" s="25"/>
       <c r="E78" s="25"/>
       <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
+      <c r="G78" s="0"/>
+      <c r="H78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="25"/>
@@ -2352,8 +2426,8 @@
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
+      <c r="G79" s="0"/>
+      <c r="H79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="25"/>
@@ -2361,8 +2435,8 @@
       <c r="D80" s="25"/>
       <c r="E80" s="25"/>
       <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
+      <c r="G80" s="0"/>
+      <c r="H80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="25"/>
@@ -2370,8 +2444,8 @@
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
       <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
+      <c r="G81" s="0"/>
+      <c r="H81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="25"/>
@@ -2379,8 +2453,8 @@
       <c r="D82" s="25"/>
       <c r="E82" s="25"/>
       <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
+      <c r="G82" s="0"/>
+      <c r="H82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="25"/>
@@ -2388,8 +2462,8 @@
       <c r="D83" s="25"/>
       <c r="E83" s="25"/>
       <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
+      <c r="G83" s="0"/>
+      <c r="H83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="25"/>
@@ -2397,8 +2471,8 @@
       <c r="D84" s="25"/>
       <c r="E84" s="25"/>
       <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
+      <c r="G84" s="0"/>
+      <c r="H84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="25"/>
@@ -2406,8 +2480,8 @@
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
       <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
+      <c r="G85" s="0"/>
+      <c r="H85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="25"/>
@@ -2415,8 +2489,8 @@
       <c r="D86" s="25"/>
       <c r="E86" s="25"/>
       <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
+      <c r="G86" s="0"/>
+      <c r="H86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="25"/>
@@ -2424,8 +2498,8 @@
       <c r="D87" s="25"/>
       <c r="E87" s="25"/>
       <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
+      <c r="G87" s="0"/>
+      <c r="H87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="25"/>
@@ -2433,8 +2507,8 @@
       <c r="D88" s="25"/>
       <c r="E88" s="25"/>
       <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
+      <c r="G88" s="0"/>
+      <c r="H88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="25"/>
@@ -2442,8 +2516,8 @@
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
       <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
+      <c r="G89" s="0"/>
+      <c r="H89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="25"/>
@@ -2451,8 +2525,8 @@
       <c r="D90" s="25"/>
       <c r="E90" s="25"/>
       <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25"/>
+      <c r="G90" s="0"/>
+      <c r="H90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="25"/>
@@ -2460,8 +2534,8 @@
       <c r="D91" s="25"/>
       <c r="E91" s="25"/>
       <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
+      <c r="G91" s="0"/>
+      <c r="H91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="25"/>
@@ -2469,8 +2543,8 @@
       <c r="D92" s="25"/>
       <c r="E92" s="25"/>
       <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
+      <c r="G92" s="0"/>
+      <c r="H92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="25"/>
@@ -2478,8 +2552,8 @@
       <c r="D93" s="25"/>
       <c r="E93" s="25"/>
       <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
+      <c r="G93" s="0"/>
+      <c r="H93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="25"/>
@@ -2487,8 +2561,8 @@
       <c r="D94" s="25"/>
       <c r="E94" s="25"/>
       <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
+      <c r="G94" s="0"/>
+      <c r="H94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="25"/>
@@ -2496,8 +2570,8 @@
       <c r="D95" s="25"/>
       <c r="E95" s="25"/>
       <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="25"/>
+      <c r="G95" s="0"/>
+      <c r="H95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="25"/>
@@ -2505,8 +2579,8 @@
       <c r="D96" s="25"/>
       <c r="E96" s="25"/>
       <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
+      <c r="G96" s="0"/>
+      <c r="H96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="25"/>
@@ -2514,8 +2588,8 @@
       <c r="D97" s="25"/>
       <c r="E97" s="25"/>
       <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
+      <c r="G97" s="0"/>
+      <c r="H97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="25"/>
@@ -2523,8 +2597,8 @@
       <c r="D98" s="25"/>
       <c r="E98" s="25"/>
       <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
+      <c r="G98" s="0"/>
+      <c r="H98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="25"/>
@@ -3675,8 +3749,8 @@
   </sheetPr>
   <dimension ref="A1:X895"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C22" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F54" activeCellId="0" sqref="F54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3799,14 +3873,14 @@
       <c r="F3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>21</v>
+      <c r="G3" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J3" s="15" t="n">
         <v>1</v>
@@ -3815,13 +3889,13 @@
         <v>33</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="2"/>
@@ -3841,10 +3915,10 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="12"/>
       <c r="I4" s="19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J4" s="15" t="n">
         <v>1</v>
@@ -3871,7 +3945,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="12"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -3897,7 +3971,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="12"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
@@ -3928,10 +4002,10 @@
         <v>25</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -4037,13 +4111,13 @@
         <v>28</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -4152,10 +4226,10 @@
         <v>25</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -4264,10 +4338,10 @@
         <v>25</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
@@ -4376,10 +4450,10 @@
         <v>25</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
@@ -4485,13 +4559,13 @@
         <v>52</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
@@ -4598,10 +4672,10 @@
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
@@ -4710,10 +4784,10 @@
         <v>25</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
@@ -4822,10 +4896,10 @@
         <v>25</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
@@ -4931,13 +5005,13 @@
         <v>66</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
@@ -5046,10 +5120,10 @@
         <v>25</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
@@ -5136,15 +5210,15 @@
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
       <c r="O50" s="15"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
@@ -27174,43 +27248,43 @@
     <mergeCell ref="H47:H50"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId2" display="https://github.com/raian621/llm-prompting-assignment/tree/main/chatgpt/index.html"/>
-    <hyperlink ref="H3" r:id="rId3" display="https://raian621.github.io/llm-prompting-assignment/chatgpt/index.html"/>
+    <hyperlink ref="G3" r:id="rId2" display="https://github.com/raian621/llm-prompting-assignment/tree/main/chatgpt/fixed.html"/>
+    <hyperlink ref="H3" r:id="rId3" display="https://raian621.github.io/llm-prompting-assignment/chatgpt/fixed.html"/>
     <hyperlink ref="E7" r:id="rId4" display="Ask Codi"/>
-    <hyperlink ref="G7" r:id="rId5" display="https://github.com/raian621/llm-prompting-assignment/tree/main/ask-codi/index.html"/>
-    <hyperlink ref="H7" r:id="rId6" display="https://raian621.github.io/llm-prompting-assignment/ask-codi/index.html"/>
+    <hyperlink ref="G7" r:id="rId5" display="https://github.com/raian621/llm-prompting-assignment/tree/main/ask-codi/fixed.html"/>
+    <hyperlink ref="H7" r:id="rId6" display="https://raian621.github.io/llm-prompting-assignment/ask-codi/fixed.html"/>
     <hyperlink ref="E11" r:id="rId7" display="You"/>
     <hyperlink ref="F11" r:id="rId8" display="https://you.com/search?q=I+ran+the+code+above+through+a+couple+of+online+accessibility+checkers+and+got+the+following+errors%3A...&amp;cid=c1_923b64a7-af9d-4755-82de-033a643fd86e&amp;tbm=youchat"/>
-    <hyperlink ref="G11" r:id="rId9" display="https://github.com/raian621/llm-prompting-assignment/tree/main/you/index.html"/>
-    <hyperlink ref="H11" r:id="rId10" display="https://raian621.github.io/llm-prompting-assignment/you/index.html"/>
+    <hyperlink ref="G11" r:id="rId9" display="https://github.com/raian621/llm-prompting-assignment/tree/main/you/fixed.html"/>
+    <hyperlink ref="H11" r:id="rId10" display="https://raian621.github.io/llm-prompting-assignment/you/fixed.html"/>
     <hyperlink ref="E15" r:id="rId11" display="Google Bard (Gemini)"/>
-    <hyperlink ref="G15" r:id="rId12" display="https://github.com/raian621/llm-prompting-assignment/tree/main/gemini/index.html"/>
-    <hyperlink ref="H15" r:id="rId13" display="https://raian621.github.io/llm-prompting-assignment/gemini/index.html"/>
+    <hyperlink ref="G15" r:id="rId12" display="https://github.com/raian621/llm-prompting-assignment/tree/main/gemini/fixed.html"/>
+    <hyperlink ref="H15" r:id="rId13" display="https://raian621.github.io/llm-prompting-assignment/gemini/fixed.html"/>
     <hyperlink ref="E19" r:id="rId14" display="GitHub Copilot"/>
-    <hyperlink ref="G19" r:id="rId15" display="https://github.com/raian621/llm-prompting-assignment/tree/main/github-copilot/index.html"/>
-    <hyperlink ref="H19" r:id="rId16" display="https://raian621.github.io/llm-prompting-assignment/github-copilot/index.html"/>
+    <hyperlink ref="G19" r:id="rId15" display="https://github.com/raian621/llm-prompting-assignment/tree/main/github-copilot/fixed.html"/>
+    <hyperlink ref="H19" r:id="rId16" display="https://raian621.github.io/llm-prompting-assignment/github-copilot/fixed.html"/>
     <hyperlink ref="E23" r:id="rId17" display="Amazom Whisperer"/>
-    <hyperlink ref="G23" r:id="rId18" display="https://github.com/raian621/llm-prompting-assignment/tree/main/amazon-whisperer/index.html"/>
-    <hyperlink ref="H23" r:id="rId19" display="https://raian621.github.io/llm-prompting-assignment/amazon-whisperer/index.html"/>
+    <hyperlink ref="G23" r:id="rId18" display="https://github.com/raian621/llm-prompting-assignment/tree/main/amazon-whisperer/fixed.html"/>
+    <hyperlink ref="H23" r:id="rId19" display="https://raian621.github.io/llm-prompting-assignment/amazon-whisperer/fixed.html"/>
     <hyperlink ref="E27" r:id="rId20" display="Microsoft Copilot"/>
     <hyperlink ref="F27" r:id="rId21" display="https://copilot.microsoft.com/sl/gMszgQ8X9eC"/>
-    <hyperlink ref="G27" r:id="rId22" display="https://github.com/raian621/llm-prompting-assignment/tree/main/microsoft-copilot/index.html"/>
-    <hyperlink ref="H27" r:id="rId23" display="https://raian621.github.io/llm-prompting-assignment/microsoft-copilot.index.html"/>
+    <hyperlink ref="G27" r:id="rId22" display="https://github.com/raian621/llm-prompting-assignment/tree/main/microsoft-copilot/fixed.html"/>
+    <hyperlink ref="H27" r:id="rId23" display="https://raian621.github.io/llm-prompting-assignment/microsoft-copilot/fixed.html"/>
     <hyperlink ref="E31" r:id="rId24" display="Tabnine"/>
-    <hyperlink ref="G31" r:id="rId25" display="https://github.com/raian621/llm-prompting-assignment/tree/main/tabnine/index.html"/>
-    <hyperlink ref="H31" r:id="rId26" display="https://raian621.github.io/llm-prompting-assignment/tabnine/index.html"/>
+    <hyperlink ref="G31" r:id="rId25" display="https://github.com/raian621/llm-prompting-assignment/tree/main/tabnine/fixed.html"/>
+    <hyperlink ref="H31" r:id="rId26" display="https://raian621.github.io/llm-prompting-assignment/tabnine/fixed.html"/>
     <hyperlink ref="E35" r:id="rId27" display="Codeium"/>
-    <hyperlink ref="G35" r:id="rId28" display="https://github.com/raian621/llm-prompting-assignment/tree/main/codeium/index.html"/>
-    <hyperlink ref="H35" r:id="rId29" display="https://raian621.github.io/llm-prompting-assignment/codeium/index.html"/>
+    <hyperlink ref="G35" r:id="rId28" display="https://github.com/raian621/llm-prompting-assignment/tree/main/codeium/fixed.html"/>
+    <hyperlink ref="H35" r:id="rId29" display="https://raian621.github.io/llm-prompting-assignment/codeium/fixed.html"/>
     <hyperlink ref="E39" r:id="rId30" display="Phind"/>
-    <hyperlink ref="G39" r:id="rId31" display="https://github.com/raian621/llm-prompting-assignment/tree/main/tabnine/index.html"/>
-    <hyperlink ref="H39" r:id="rId32" display="https://raian621.github.io/llm-prompting-assignment/phind/index.html"/>
+    <hyperlink ref="G39" r:id="rId31" display="https://github.com/raian621/llm-prompting-assignment/tree/main/tabnine/fixed.html"/>
+    <hyperlink ref="H39" r:id="rId32" display="https://raian621.github.io/llm-prompting-assignment/phind/fixed.html"/>
     <hyperlink ref="E43" r:id="rId33" display="blackbox"/>
-    <hyperlink ref="G43" r:id="rId34" display="https://github.com/raian621/llm-prompting-assignment/tree/main/blackbox/index.html"/>
-    <hyperlink ref="H43" r:id="rId35" display="https://raian621.github.io/llm-prompting-assignment/blackbox/index.html"/>
+    <hyperlink ref="G43" r:id="rId34" display="https://github.com/raian621/llm-prompting-assignment/tree/main/blackbox/fixed.html"/>
+    <hyperlink ref="H43" r:id="rId35" display="https://raian621.github.io/llm-prompting-assignment/blackbox/fixed.html"/>
     <hyperlink ref="E47" r:id="rId36" display="double"/>
-    <hyperlink ref="G47" r:id="rId37" display="https://github.com/raian621/llm-prompting-assignment/tree/main/double/index.html"/>
-    <hyperlink ref="H47" r:id="rId38" display="https://raian621.github.io/llm-prompting-assignment/double/index.html"/>
+    <hyperlink ref="G47" r:id="rId37" display="https://github.com/raian621/llm-prompting-assignment/tree/main/double/fixed.html"/>
+    <hyperlink ref="H47" r:id="rId38" display="https://raian621.github.io/llm-prompting-assignment/double/fixed.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Ryan_Bell_LLM_Sheet.xlsx
+++ b/Ryan_Bell_LLM_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Creation_Sheet" sheetId="1" state="visible" r:id="rId3"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="102">
   <si>
     <t xml:space="preserve">WAVE errors (https://wave.webaim.org/)</t>
   </si>
@@ -411,21 +411,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://raian621.github.io/llm-prompting-assignment/chatgpt/fixed.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 X Linked image missing alternative text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resize text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 X Very low contrast</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/raian621/llm-prompting-assignment/tree/main/ask-codi/fixed.html</t>
@@ -1076,8 +1061,8 @@
   </sheetPr>
   <dimension ref="A1:O906"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E16" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H43" activeCellId="0" sqref="H43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F19" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H47" activeCellId="0" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2109,9 +2094,13 @@
       <c r="H47" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I47" s="15"/>
+      <c r="I47" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
+      <c r="K47" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
@@ -3749,8 +3738,8 @@
   </sheetPr>
   <dimension ref="A1:X895"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3880,23 +3869,15 @@
         <v>77</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
-      <c r="J3" s="15" t="n">
-        <v>1</v>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15" t="s">
+        <v>23</v>
       </c>
-      <c r="K3" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>81</v>
-      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="15"/>
       <c r="O3" s="15"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -3917,12 +3898,8 @@
       <c r="F4" s="9"/>
       <c r="G4" s="27"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
@@ -4002,14 +3979,18 @@
         <v>25</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="K7" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -4111,17 +4092,21 @@
         <v>28</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
+      <c r="K11" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
@@ -4226,14 +4211,18 @@
         <v>25</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
-      <c r="I15" s="15"/>
+      <c r="I15" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
+      <c r="K15" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
@@ -4338,14 +4327,18 @@
         <v>25</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
-      <c r="I19" s="15"/>
+      <c r="I19" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="K19" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
@@ -4450,14 +4443,18 @@
         <v>25</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
-      <c r="I23" s="15"/>
+      <c r="I23" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
+      <c r="K23" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
@@ -4559,21 +4556,33 @@
         <v>52</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
-      <c r="I27" s="15"/>
+      <c r="I27" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
+      <c r="K27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" s="15" t="n">
+        <v>4</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -4670,16 +4679,22 @@
       <c r="E31" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="12"/>
+      <c r="F31" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="G31" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
-      <c r="I31" s="15"/>
+      <c r="I31" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+      <c r="K31" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
@@ -4784,14 +4799,18 @@
         <v>25</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
-      <c r="I35" s="15"/>
+      <c r="I35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
+      <c r="K35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
       <c r="N35" s="15"/>
@@ -4896,14 +4915,18 @@
         <v>25</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
-      <c r="I39" s="15"/>
+      <c r="I39" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
+      <c r="K39" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
@@ -5005,17 +5028,21 @@
         <v>66</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
-      <c r="I43" s="15"/>
+      <c r="I43" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
+      <c r="K43" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
@@ -5120,14 +5147,18 @@
         <v>25</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
-      <c r="I47" s="15"/>
+      <c r="I47" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
+      <c r="K47" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
